--- a/ventas_ingresadas.xlsx
+++ b/ventas_ingresadas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repositorios\estadistica_agendamientos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\estadistica_agendamientos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362870A2-03E6-4A07-8B4D-F12D66D220B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146BD835-1FFD-496E-9083-F98A085C88A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5172" yWindow="2088" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Recepcionista</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>15_01_2024</t>
+  </si>
+  <si>
+    <t>21_01_2024</t>
   </si>
 </sst>
 </file>
@@ -367,20 +370,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -393,8 +396,11 @@
       <c r="D1" t="s">
         <v>7</v>
       </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -407,8 +413,11 @@
       <c r="D2">
         <v>753</v>
       </c>
+      <c r="E2">
+        <v>784</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -421,8 +430,11 @@
       <c r="D3">
         <v>655</v>
       </c>
+      <c r="E3">
+        <v>702</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -435,8 +447,11 @@
       <c r="D4">
         <v>1276</v>
       </c>
+      <c r="E4">
+        <v>1299</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -448,6 +463,9 @@
       </c>
       <c r="D5">
         <v>2771</v>
+      </c>
+      <c r="E5">
+        <v>2814</v>
       </c>
     </row>
   </sheetData>

--- a/ventas_ingresadas.xlsx
+++ b/ventas_ingresadas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\estadistica_agendamientos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repositorios\estadistica_agendamientos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146BD835-1FFD-496E-9083-F98A085C88A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6B518B-998B-48A2-B658-F69C26FE02D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -376,14 +376,14 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -400,7 +400,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -417,7 +417,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -434,7 +434,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -451,7 +451,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>

--- a/ventas_ingresadas.xlsx
+++ b/ventas_ingresadas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repositorios\estadistica_agendamientos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6B518B-998B-48A2-B658-F69C26FE02D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8D2D06-3576-4839-9522-5BBF3C6BB0BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Recepcionista</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>21_01_2024</t>
+  </si>
+  <si>
+    <t>28_01_2024</t>
   </si>
 </sst>
 </file>
@@ -370,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -383,7 +386,7 @@
     <col min="3" max="3" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -399,8 +402,11 @@
       <c r="E1" t="s">
         <v>8</v>
       </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -416,8 +422,11 @@
       <c r="E2">
         <v>784</v>
       </c>
+      <c r="F2">
+        <v>838</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -433,8 +442,11 @@
       <c r="E3">
         <v>702</v>
       </c>
+      <c r="F3">
+        <v>720</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -450,8 +462,11 @@
       <c r="E4">
         <v>1299</v>
       </c>
+      <c r="F4">
+        <v>1330</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -466,6 +481,9 @@
       </c>
       <c r="E5">
         <v>2814</v>
+      </c>
+      <c r="F5">
+        <v>2851</v>
       </c>
     </row>
   </sheetData>

--- a/ventas_ingresadas.xlsx
+++ b/ventas_ingresadas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repositorios\estadistica_agendamientos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8D2D06-3576-4839-9522-5BBF3C6BB0BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0DF16D9-BA2E-42F2-A00F-76C056CB2B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Recepcionista</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>28_01_2024</t>
+  </si>
+  <si>
+    <t>07_02_2024</t>
   </si>
 </sst>
 </file>
@@ -373,10 +376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -386,7 +389,7 @@
     <col min="3" max="3" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -405,8 +408,11 @@
       <c r="F1" t="s">
         <v>9</v>
       </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -425,8 +431,11 @@
       <c r="F2">
         <v>838</v>
       </c>
+      <c r="G2">
+        <v>899</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -445,8 +454,11 @@
       <c r="F3">
         <v>720</v>
       </c>
+      <c r="G3">
+        <v>807</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -465,8 +477,11 @@
       <c r="F4">
         <v>1330</v>
       </c>
+      <c r="G4">
+        <v>1367</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -484,6 +499,9 @@
       </c>
       <c r="F5">
         <v>2851</v>
+      </c>
+      <c r="G5">
+        <v>2866</v>
       </c>
     </row>
   </sheetData>
